--- a/210503_ERP_메뉴정리_권한_담당자.xlsx
+++ b/210503_ERP_메뉴정리_권한_담당자.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23190" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23190" windowHeight="10485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">test!$A$1:$G$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">test!$A$1:$G$25</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="99">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,40 +404,6 @@
   </si>
   <si>
     <t>신상석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인사/급여
-employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회계
-accounting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매출
-sales</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영업
-business</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캘린더 
-taskCalendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운영관리
-system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런느낌으로 화면아이디에 Controller이렇게 붙여서 사용하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -540,24 +506,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,25 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,49 +581,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>943491</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95585</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9172575" y="1676400"/>
-          <a:ext cx="3696216" cy="2400635"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1391,15 +1285,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
@@ -1440,8 +1333,8 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>99</v>
+      <c r="A2" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>51</v>
@@ -1664,7 +1557,7 @@
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="6" t="s">
         <v>75</v>
       </c>
@@ -1685,9 +1578,7 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>100</v>
-      </c>
+      <c r="A9" s="15"/>
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1708,7 +1599,9 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1750,7 +1643,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="6" t="s">
         <v>71</v>
       </c>
@@ -1771,9 +1664,7 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>101</v>
-      </c>
+      <c r="A13" s="15"/>
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
@@ -1794,7 +1685,9 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1836,7 +1729,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1856,10 +1749,8 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>102</v>
-      </c>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
@@ -1879,8 +1770,10 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
@@ -1900,7 +1793,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="6" t="s">
         <v>13</v>
@@ -1921,7 +1814,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="6" t="s">
         <v>61</v>
@@ -1942,8 +1835,8 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
       <c r="B21" s="6" t="s">
         <v>60</v>
       </c>
@@ -1961,101 +1854,97 @@
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="6"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" s="6" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F22" s="11">
-        <v>44792</v>
-      </c>
-      <c r="G22" s="6"/>
+        <v>44789</v>
+      </c>
+      <c r="G22" s="11">
+        <v>44789</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>15</v>
-      </c>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F23" s="11">
-        <v>44797</v>
+        <v>44792</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="B24" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E24" s="6" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="F24" s="11">
-        <v>44783</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
+        <v>44797</v>
+      </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
       <c r="B25" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F25" s="11">
-        <v>44789</v>
-      </c>
-      <c r="G25" s="11">
-        <v>44789</v>
+        <v>44783</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2066,18 +1955,27 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A23:A25"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>